--- a/classfiers/greedy/svm/smote/greedy-svm-linear-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9956140350877193</v>
+        <v>0.7482758620689656</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9869565217391304</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9912663755458515</v>
+        <v>0.8330134357005758</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999054820415879</v>
+        <v>0.7584190701073819</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9744680851063829</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9956521739130435</v>
+        <v>0.8658008658008658</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9849462365591397</v>
+        <v>0.9111617312072893</v>
       </c>
       <c r="E3" t="n">
-        <v>0.978241965973535</v>
+        <v>0.9750566893424036</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.867704280155642</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.9653679653679653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.989247311827957</v>
+        <v>0.9139344262295083</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999054820415878</v>
+        <v>0.9540488371657203</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8582089552238806</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.9043478260869565</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9236947791164658</v>
+        <v>0.8702928870292886</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9901890359168243</v>
+        <v>0.9748164878599662</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9787234042553191</v>
+        <v>0.6353276353276354</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.9653679653679653</v>
       </c>
       <c r="D6" t="n">
-        <v>0.989247311827957</v>
+        <v>0.7663230240549828</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9872589792060491</v>
+        <v>0.8545830980613589</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9571475767857243</v>
+        <v>0.8103111833020119</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9965217391304348</v>
+        <v>0.9280557124035385</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9756804029754742</v>
+        <v>0.8589451008443291</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9911001890359168</v>
+        <v>0.9033848365073662</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/greedy/svm/smote/greedy-svm-linear-results.xlsx
+++ b/classfiers/greedy/svm/smote/greedy-svm-linear-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7482758620689656</v>
+        <v>0.7563636363636363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9393939393939394</v>
+        <v>0.9952153110047847</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8330134357005758</v>
+        <v>0.859504132231405</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7584190701073819</v>
+        <v>0.7830485304169514</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9615384615384616</v>
+        <v>0.9126637554585153</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8658008658008658</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9111617312072893</v>
+        <v>0.954337899543379</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9750566893424036</v>
+        <v>0.9564137616769196</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.867704280155642</v>
+        <v>0.84</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9653679653679653</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9139344262295083</v>
+        <v>0.9130434782608696</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9540488371657203</v>
+        <v>0.8515607199817725</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8387096774193549</v>
+        <v>0.7865168539325843</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9043478260869565</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8702928870292886</v>
+        <v>0.880503144654088</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9748164878599662</v>
+        <v>0.9608794714057872</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6353276353276354</v>
+        <v>0.5805555555555556</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9653679653679653</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7663230240549828</v>
+        <v>0.7346221441124781</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8545830980613589</v>
+        <v>0.7533710308829926</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8103111833020119</v>
+        <v>0.7752199602620584</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9280557124035385</v>
+        <v>0.999043062200957</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8589451008443291</v>
+        <v>0.8684021597604439</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9033848365073662</v>
+        <v>0.8610547028728845</v>
       </c>
     </row>
   </sheetData>
